--- a/Second-Sprint/Artefactos/Tracker de contribucion/Formato.xlsx
+++ b/Second-Sprint/Artefactos/Tracker de contribucion/Formato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrah\Desktop\Proyectos\Manhattan\Second-Sprint\Artefactos\Tracker de contribucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226E9C9-B8B8-44DB-A04D-F255BEF1E321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C696D-6024-4D37-99EB-DBFA241F2EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA140FCA-3ABC-4272-B364-C4EE3A32EBFF}"/>
   </bookViews>
@@ -81,13 +81,13 @@
     <t xml:space="preserve">Total mettings: </t>
   </si>
   <si>
-    <t>Contribution tracker - Manhattan - Sprint 1</t>
-  </si>
-  <si>
     <t>At the end of the sprint, each member is expected to contribute 16.67%</t>
   </si>
   <si>
     <t>Calculus: ((Activities total / activities complete) * 90%) + ((Team mettings attended / total mettings) * 10%)</t>
+  </si>
+  <si>
+    <t>Contribution tracker - Manhattan - Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -227,6 +227,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -249,9 +252,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,7 +572,7 @@
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,50 +591,50 @@
     <row r="2" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="2:10" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -769,22 +769,22 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:B12">
